--- a/Rrt_Nawaqis_2025-06-21_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-06-21_00-00.xlsx
@@ -3,14 +3,407 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>صيدليات دكتور مصطفي طلعت</t>
+  </si>
+  <si>
+    <t>نواقص الأصناف</t>
+  </si>
+  <si>
+    <t>في الفترة من</t>
+  </si>
+  <si>
+    <t>الى</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>الرصيد الحالي</t>
+  </si>
+  <si>
+    <t>حد الطلب</t>
+  </si>
+  <si>
+    <t>السعر</t>
+  </si>
+  <si>
+    <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>ORCHAPRED 1% EYE DROPS (SUSP.) 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>TAMSUL 0.4MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8646:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>116:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
+    <t>Saturday, 21 June, 2025 5:59 PM</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>developed by : Abdelaziz Talaat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18,19 +411,154 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC04000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0616D"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0616D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0616D"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0616D"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0616D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -39,8 +567,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,8 +889,1586 @@
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1"/>
   </sheetViews>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.43" customWidth="1"/>
+    <col min="2" max="2" width="20.29" customWidth="1"/>
+    <col min="3" max="3" width="1.57" customWidth="1"/>
+    <col min="4" max="4" width="12.71" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="13.29" customWidth="1"/>
+    <col min="7" max="7" width="0.43" customWidth="1"/>
+    <col min="8" max="8" width="1.14" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="6.71" customWidth="1"/>
+    <col min="11" max="11" width="9.71" customWidth="1"/>
+    <col min="12" max="12" width="10.43" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="7.5" customHeight="1"/>
+    <row r="2" ht="34.5" customHeight="1">
+      <c t="s" r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="35.25" customHeight="1">
+      <c t="s" r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c t="s" r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45829</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c t="s" r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4">
+        <v>45829</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="0.75" customHeight="1"/>
+    <row r="6" ht="25.5" customHeight="1">
+      <c t="s" r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c t="s" r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c t="s" r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c t="s" r="K6" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="M6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c t="s" r="B7" s="8">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c t="s" r="H7" s="9">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c t="s" r="K7" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L7" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M7" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" customHeight="1">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c t="s" r="B8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c t="s" r="K8" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L8" s="8">
+        <v>17</v>
+      </c>
+      <c t="s" r="M8" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c t="s" r="B9" s="8">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c t="s" r="K9" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L9" s="8">
+        <v>20</v>
+      </c>
+      <c t="s" r="M9" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c t="s" r="B10" s="8">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c t="s" r="K10" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L10" s="8">
+        <v>22</v>
+      </c>
+      <c t="s" r="M10" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c t="s" r="B11" s="8">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>19</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c t="s" r="K11" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L11" s="8">
+        <v>24</v>
+      </c>
+      <c t="s" r="M11" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c t="s" r="B12" s="8">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>27</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c t="s" r="K12" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L12" s="8">
+        <v>28</v>
+      </c>
+      <c t="s" r="M12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c t="s" r="B13" s="8">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c t="s" r="K13" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L13" s="8">
+        <v>31</v>
+      </c>
+      <c t="s" r="M13" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c t="s" r="B14" s="8">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>33</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c t="s" r="K14" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L14" s="8">
+        <v>34</v>
+      </c>
+      <c t="s" r="M14" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c t="s" r="B15" s="8">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c t="s" r="K15" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L15" s="8">
+        <v>36</v>
+      </c>
+      <c t="s" r="M15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c t="s" r="B16" s="8">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c t="s" r="K16" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L16" s="8">
+        <v>38</v>
+      </c>
+      <c t="s" r="M16" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c t="s" r="B17" s="8">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>40</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c t="s" r="K17" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L17" s="8">
+        <v>41</v>
+      </c>
+      <c t="s" r="M17" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c t="s" r="B18" s="8">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c t="s" r="K18" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L18" s="8">
+        <v>43</v>
+      </c>
+      <c t="s" r="M18" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c t="s" r="B19" s="8">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c t="s" r="K19" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L19" s="8">
+        <v>45</v>
+      </c>
+      <c t="s" r="M19" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c t="s" r="B20" s="8">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>47</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c t="s" r="K20" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L20" s="8">
+        <v>48</v>
+      </c>
+      <c t="s" r="M20" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c t="s" r="B21" s="8">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>25</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c t="s" r="K21" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L21" s="8">
+        <v>50</v>
+      </c>
+      <c t="s" r="M21" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c t="s" r="B22" s="8">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c t="s" r="K22" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L22" s="8">
+        <v>52</v>
+      </c>
+      <c t="s" r="M22" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c t="s" r="B23" s="8">
+        <v>53</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>40</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c t="s" r="K23" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L23" s="8">
+        <v>54</v>
+      </c>
+      <c t="s" r="M23" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c t="s" r="B24" s="8">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>40</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c t="s" r="K24" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L24" s="8">
+        <v>56</v>
+      </c>
+      <c t="s" r="M24" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c t="s" r="B25" s="8">
+        <v>57</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>58</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c t="s" r="K25" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L25" s="8">
+        <v>38</v>
+      </c>
+      <c t="s" r="M25" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c t="s" r="B26" s="8">
+        <v>59</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>60</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c t="s" r="K26" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L26" s="8">
+        <v>61</v>
+      </c>
+      <c t="s" r="M26" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c t="s" r="B27" s="8">
+        <v>62</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>19</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c t="s" r="K27" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L27" s="8">
+        <v>61</v>
+      </c>
+      <c t="s" r="M27" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c t="s" r="B28" s="8">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c t="s" r="K28" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L28" s="8">
+        <v>64</v>
+      </c>
+      <c t="s" r="M28" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c t="s" r="B29" s="8">
+        <v>65</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c t="s" r="K29" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L29" s="8">
+        <v>66</v>
+      </c>
+      <c t="s" r="M29" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c t="s" r="B30" s="8">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>68</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c t="s" r="K30" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L30" s="8">
+        <v>70</v>
+      </c>
+      <c t="s" r="M30" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c t="s" r="B31" s="8">
+        <v>71</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>68</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c t="s" r="K31" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L31" s="8">
+        <v>72</v>
+      </c>
+      <c t="s" r="M31" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c t="s" r="B32" s="8">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>11</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c t="s" r="K32" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L32" s="8">
+        <v>74</v>
+      </c>
+      <c t="s" r="M32" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c t="s" r="B33" s="8">
+        <v>75</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>76</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c t="s" r="K33" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L33" s="8">
+        <v>70</v>
+      </c>
+      <c t="s" r="M33" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c t="s" r="B34" s="8">
+        <v>77</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>25</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c t="s" r="K34" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L34" s="8">
+        <v>78</v>
+      </c>
+      <c t="s" r="M34" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c t="s" r="B35" s="8">
+        <v>79</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>40</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c t="s" r="K35" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L35" s="8">
+        <v>80</v>
+      </c>
+      <c t="s" r="M35" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c t="s" r="B36" s="8">
+        <v>81</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c t="s" r="K36" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L36" s="8">
+        <v>82</v>
+      </c>
+      <c t="s" r="M36" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c t="s" r="B37" s="8">
+        <v>83</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>84</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c t="s" r="K37" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L37" s="8">
+        <v>85</v>
+      </c>
+      <c t="s" r="M37" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c t="s" r="B38" s="8">
+        <v>86</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>25</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c t="s" r="K38" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L38" s="8">
+        <v>87</v>
+      </c>
+      <c t="s" r="M38" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c t="s" r="B39" s="8">
+        <v>88</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>25</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c t="s" r="K39" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L39" s="8">
+        <v>89</v>
+      </c>
+      <c t="s" r="M39" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c t="s" r="B40" s="8">
+        <v>90</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>25</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c t="s" r="K40" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L40" s="8">
+        <v>91</v>
+      </c>
+      <c t="s" r="M40" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c t="s" r="B41" s="8">
+        <v>92</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>47</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c t="s" r="K41" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L41" s="8">
+        <v>61</v>
+      </c>
+      <c t="s" r="M41" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c t="s" r="B42" s="8">
+        <v>93</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>94</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c t="s" r="K42" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L42" s="8">
+        <v>78</v>
+      </c>
+      <c t="s" r="M42" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c t="s" r="B43" s="8">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>19</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c t="s" r="K43" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L43" s="8">
+        <v>61</v>
+      </c>
+      <c t="s" r="M43" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c t="s" r="B44" s="8">
+        <v>96</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>97</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c t="s" r="K44" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L44" s="8">
+        <v>98</v>
+      </c>
+      <c t="s" r="M44" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c t="s" r="B45" s="8">
+        <v>99</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>100</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c t="s" r="K45" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L45" s="8">
+        <v>101</v>
+      </c>
+      <c t="s" r="M45" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c t="s" r="B46" s="8">
+        <v>102</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>103</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c t="s" r="K46" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L46" s="8">
+        <v>104</v>
+      </c>
+      <c t="s" r="M46" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c t="s" r="B47" s="8">
+        <v>105</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>25</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c t="s" r="K47" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L47" s="8">
+        <v>106</v>
+      </c>
+      <c t="s" r="M47" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c t="s" r="B48" s="8">
+        <v>107</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>25</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c t="s" r="K48" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L48" s="8">
+        <v>101</v>
+      </c>
+      <c t="s" r="M48" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c t="s" r="B49" s="8">
+        <v>109</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>25</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c t="s" r="K49" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L49" s="8">
+        <v>106</v>
+      </c>
+      <c t="s" r="M49" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c t="s" r="B50" s="8">
+        <v>110</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>25</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c t="s" r="K50" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L50" s="8">
+        <v>111</v>
+      </c>
+      <c t="s" r="M50" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c t="s" r="B51" s="8">
+        <v>112</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>113</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c t="s" r="K51" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L51" s="8">
+        <v>114</v>
+      </c>
+      <c t="s" r="M51" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c t="s" r="B52" s="8">
+        <v>115</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>108</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c t="s" r="K52" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L52" s="8">
+        <v>116</v>
+      </c>
+      <c t="s" r="M52" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c t="s" r="B53" s="8">
+        <v>117</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>118</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c t="s" r="K53" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L53" s="8">
+        <v>119</v>
+      </c>
+      <c t="s" r="M53" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c t="s" r="B54" s="8">
+        <v>120</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>25</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c t="s" r="K54" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L54" s="8">
+        <v>119</v>
+      </c>
+      <c t="s" r="M54" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c t="s" r="B55" s="8">
+        <v>121</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>122</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c t="s" r="K55" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L55" s="8">
+        <v>123</v>
+      </c>
+      <c t="s" r="M55" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c t="s" r="B56" s="8">
+        <v>124</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>108</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c t="s" r="K56" s="10">
+        <v>69</v>
+      </c>
+      <c t="s" r="L56" s="8">
+        <v>119</v>
+      </c>
+      <c t="s" r="M56" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="12">
+        <v>125</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c t="s" r="F57" s="13">
+        <v>126</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c t="s" r="I57" s="15">
+        <v>127</v>
+      </c>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:M57"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>